--- a/Project/SN Usoskin Brehm.xlsx
+++ b/Project/SN Usoskin Brehm.xlsx
@@ -4,12 +4,12 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data"/>
     <sheet r:id="rId2" sheetId="2" name="Binomial filtering"/>
-    <sheet r:id="rId3" sheetId="3" name="SN maxima &amp;amp; minima"/>
+    <sheet r:id="rId3" sheetId="3" name="SN maxima &amp;amp;amp; minima"/>
     <sheet r:id="rId4" sheetId="4" name="SN spectrum"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -176,13 +176,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -193,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -263,25 +269,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -290,49 +296,49 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -344,16 +350,16 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -663,7 +669,7 @@
   </sheetPr>
   <dimension ref="A1:I939"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24047,7 +24053,7 @@
   </sheetPr>
   <dimension ref="A1:O939"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31967,7 +31973,7 @@
         <v>85.228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="1"/>
       <c r="B182" s="6">
         <v>1142</v>
@@ -32012,7 +32018,7 @@
         <v>68.331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="1"/>
       <c r="B183" s="6">
         <v>1143</v>
@@ -32057,7 +32063,7 @@
         <v>57.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="1"/>
       <c r="B184" s="6">
         <v>1144</v>
@@ -32102,7 +32108,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="1"/>
       <c r="B185" s="6">
         <v>1145</v>
@@ -32147,7 +32153,7 @@
         <v>55.245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="1"/>
       <c r="B186" s="6">
         <v>1146</v>
@@ -32192,7 +32198,7 @@
         <v>58.347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="1"/>
       <c r="B187" s="6">
         <v>1147</v>
@@ -32237,7 +32243,7 @@
         <v>60.416</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="1"/>
       <c r="B188" s="6">
         <v>1148</v>
@@ -32282,7 +32288,7 @@
         <v>59.142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="1"/>
       <c r="B189" s="6">
         <v>1149</v>
@@ -32327,7 +32333,7 @@
         <v>53.61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="1"/>
       <c r="B190" s="6">
         <v>1150</v>
@@ -32372,7 +32378,7 @@
         <v>44.467</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="1"/>
       <c r="B191" s="6">
         <v>1151</v>
@@ -32417,7 +32423,7 @@
         <v>33.584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="1"/>
       <c r="B192" s="6">
         <v>1152</v>
@@ -32462,7 +32468,7 @@
         <v>23.356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="1"/>
       <c r="B193" s="6">
         <v>1153</v>
@@ -32507,7 +32513,7 @@
         <v>15.878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="1"/>
       <c r="B194" s="6">
         <v>1154</v>
@@ -32552,7 +32558,7 @@
         <v>12.292</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="1"/>
       <c r="B195" s="6">
         <v>1155</v>
@@ -32597,7 +32603,7 @@
         <v>12.498</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="1"/>
       <c r="B196" s="6">
         <v>1156</v>
@@ -32642,7 +32648,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="1"/>
       <c r="B197" s="6">
         <v>1157</v>
@@ -32687,7 +32693,7 @@
         <v>18.862</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="1"/>
       <c r="B198" s="6">
         <v>1158</v>
@@ -32732,7 +32738,7 @@
         <v>21.494</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="1"/>
       <c r="B199" s="6">
         <v>1159</v>
@@ -32777,7 +32783,7 @@
         <v>22.197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="1"/>
       <c r="B200" s="6">
         <v>1160</v>
@@ -32822,7 +32828,7 @@
         <v>21.085</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="1"/>
       <c r="B201" s="6">
         <v>1161</v>
